--- a/lin/help/09_стационары_для_Справки_Губернатора.xlsx
+++ b/lin/help/09_стационары_для_Справки_Губернатора.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="110" windowWidth="27800" windowHeight="9290" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="9285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cвод_ОРВИ_и_Пневм" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="289">
   <si>
     <t>Медицинское 
 учреждение</t>
@@ -896,6 +896,18 @@
   </si>
   <si>
     <t>Спб ГБУЗ "Городская многопрофильная больница №2"</t>
+  </si>
+  <si>
+    <t>Разница</t>
+  </si>
+  <si>
+    <t>МГ</t>
+  </si>
+  <si>
+    <t>СЮС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поступило ВП и COVID </t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -2129,6 +2141,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2139,7 +2195,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2757,6 +2813,39 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2905,6 +2994,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2913,44 +3011,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2982,7 +3080,28 @@
     <cellStyle name="Обычный_Данные" xfId="3"/>
     <cellStyle name="Обычный_Лист3" xfId="4"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -3347,113 +3466,113 @@
   <dimension ref="A1:S86"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="17.26953125" customWidth="1"/>
-    <col min="19" max="19" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="226" t="s">
+    <row r="1" spans="1:19" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="223" t="s">
+      <c r="B1" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="234" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="229" t="s">
+      <c r="D1" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="231"/>
-    </row>
-    <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="227"/>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="232" t="s">
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="242"/>
+    </row>
+    <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="238"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="232" t="s">
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="236" t="s">
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="237" t="s">
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="239"/>
-    </row>
-    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="227"/>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="232" t="s">
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="250"/>
+    </row>
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="238"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="246"/>
+      <c r="F3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="235"/>
-      <c r="H3" s="232" t="s">
+      <c r="G3" s="246"/>
+      <c r="H3" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="235"/>
-      <c r="J3" s="232" t="s">
+      <c r="I3" s="246"/>
+      <c r="J3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233" t="s">
+      <c r="K3" s="244"/>
+      <c r="L3" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="235"/>
-      <c r="N3" s="236" t="s">
+      <c r="M3" s="246"/>
+      <c r="N3" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="235"/>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="241"/>
-      <c r="R3" s="241"/>
-      <c r="S3" s="242"/>
-    </row>
-    <row r="4" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="228"/>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="252"/>
+      <c r="S3" s="253"/>
+    </row>
+    <row r="4" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="239"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="236"/>
       <c r="D4" s="23" t="s">
         <v>6</v>
       </c>
@@ -3503,7 +3622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43">
         <v>0</v>
       </c>
@@ -3576,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>1</v>
       </c>
@@ -3603,7 +3722,7 @@
       <c r="R6" s="106"/>
       <c r="S6" s="106"/>
     </row>
-    <row r="7" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -3630,7 +3749,7 @@
       <c r="R7" s="108"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -3657,7 +3776,7 @@
       <c r="R8" s="107"/>
       <c r="S8" s="109"/>
     </row>
-    <row r="9" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>4</v>
       </c>
@@ -3684,7 +3803,7 @@
       <c r="R9" s="107"/>
       <c r="S9" s="109"/>
     </row>
-    <row r="10" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>5</v>
       </c>
@@ -3711,7 +3830,7 @@
       <c r="R10" s="110"/>
       <c r="S10" s="111"/>
     </row>
-    <row r="11" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>6</v>
       </c>
@@ -3738,7 +3857,7 @@
       <c r="R11" s="102"/>
       <c r="S11" s="112"/>
     </row>
-    <row r="12" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>7</v>
       </c>
@@ -3765,7 +3884,7 @@
       <c r="R12" s="102"/>
       <c r="S12" s="112"/>
     </row>
-    <row r="13" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>8</v>
       </c>
@@ -3792,7 +3911,7 @@
       <c r="R13" s="110"/>
       <c r="S13" s="111"/>
     </row>
-    <row r="14" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>9</v>
       </c>
@@ -3819,7 +3938,7 @@
       <c r="R14" s="108"/>
       <c r="S14" s="113"/>
     </row>
-    <row r="15" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>10</v>
       </c>
@@ -3846,7 +3965,7 @@
       <c r="R15" s="108"/>
       <c r="S15" s="113"/>
     </row>
-    <row r="16" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>11</v>
       </c>
@@ -3873,7 +3992,7 @@
       <c r="R16" s="110"/>
       <c r="S16" s="111"/>
     </row>
-    <row r="17" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>12</v>
       </c>
@@ -3900,7 +4019,7 @@
       <c r="R17" s="108"/>
       <c r="S17" s="113"/>
     </row>
-    <row r="18" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>13</v>
       </c>
@@ -3927,7 +4046,7 @@
       <c r="R18" s="108"/>
       <c r="S18" s="113"/>
     </row>
-    <row r="19" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>14</v>
       </c>
@@ -3954,7 +4073,7 @@
       <c r="R19" s="110"/>
       <c r="S19" s="111"/>
     </row>
-    <row r="20" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>15</v>
       </c>
@@ -3981,7 +4100,7 @@
       <c r="R20" s="107"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>16</v>
       </c>
@@ -4008,7 +4127,7 @@
       <c r="R21" s="107"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>17</v>
       </c>
@@ -4035,7 +4154,7 @@
       <c r="R22" s="110"/>
       <c r="S22" s="111"/>
     </row>
-    <row r="23" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>18</v>
       </c>
@@ -4062,7 +4181,7 @@
       <c r="R23" s="107"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>19</v>
       </c>
@@ -4089,7 +4208,7 @@
       <c r="R24" s="107"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>20</v>
       </c>
@@ -4116,7 +4235,7 @@
       <c r="R25" s="110"/>
       <c r="S25" s="111"/>
     </row>
-    <row r="26" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>21</v>
       </c>
@@ -4143,7 +4262,7 @@
       <c r="R26" s="108"/>
       <c r="S26" s="113"/>
     </row>
-    <row r="27" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>22</v>
       </c>
@@ -4170,7 +4289,7 @@
       <c r="R27" s="108"/>
       <c r="S27" s="113"/>
     </row>
-    <row r="28" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>23</v>
       </c>
@@ -4197,7 +4316,7 @@
       <c r="R28" s="110"/>
       <c r="S28" s="111"/>
     </row>
-    <row r="29" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>24</v>
       </c>
@@ -4224,7 +4343,7 @@
       <c r="R29" s="107"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>25</v>
       </c>
@@ -4251,7 +4370,7 @@
       <c r="R30" s="107"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>26</v>
       </c>
@@ -4278,7 +4397,7 @@
       <c r="R31" s="110"/>
       <c r="S31" s="111"/>
     </row>
-    <row r="32" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>27</v>
       </c>
@@ -4305,7 +4424,7 @@
       <c r="R32" s="107"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>28</v>
       </c>
@@ -4332,7 +4451,7 @@
       <c r="R33" s="107"/>
       <c r="S33" s="109"/>
     </row>
-    <row r="34" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>29</v>
       </c>
@@ -4359,7 +4478,7 @@
       <c r="R34" s="110"/>
       <c r="S34" s="111"/>
     </row>
-    <row r="35" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>30</v>
       </c>
@@ -4386,7 +4505,7 @@
       <c r="R35" s="108"/>
       <c r="S35" s="113"/>
     </row>
-    <row r="36" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>31</v>
       </c>
@@ -4413,7 +4532,7 @@
       <c r="R36" s="108"/>
       <c r="S36" s="113"/>
     </row>
-    <row r="37" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>32</v>
       </c>
@@ -4440,7 +4559,7 @@
       <c r="R37" s="110"/>
       <c r="S37" s="111"/>
     </row>
-    <row r="38" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -4467,7 +4586,7 @@
       <c r="R38" s="108"/>
       <c r="S38" s="113"/>
     </row>
-    <row r="39" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>35</v>
       </c>
@@ -4494,7 +4613,7 @@
       <c r="R39" s="108"/>
       <c r="S39" s="113"/>
     </row>
-    <row r="40" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>36</v>
       </c>
@@ -4521,7 +4640,7 @@
       <c r="R40" s="110"/>
       <c r="S40" s="111"/>
     </row>
-    <row r="41" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>37</v>
       </c>
@@ -4548,7 +4667,7 @@
       <c r="R41" s="108"/>
       <c r="S41" s="113"/>
     </row>
-    <row r="42" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>38</v>
       </c>
@@ -4575,7 +4694,7 @@
       <c r="R42" s="108"/>
       <c r="S42" s="113"/>
     </row>
-    <row r="43" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>39</v>
       </c>
@@ -4602,7 +4721,7 @@
       <c r="R43" s="110"/>
       <c r="S43" s="111"/>
     </row>
-    <row r="44" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>40</v>
       </c>
@@ -4629,7 +4748,7 @@
       <c r="R44" s="108"/>
       <c r="S44" s="113"/>
     </row>
-    <row r="45" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>41</v>
       </c>
@@ -4656,7 +4775,7 @@
       <c r="R45" s="110"/>
       <c r="S45" s="111"/>
     </row>
-    <row r="46" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>42</v>
       </c>
@@ -4683,7 +4802,7 @@
       <c r="R46" s="114"/>
       <c r="S46" s="115"/>
     </row>
-    <row r="47" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>43</v>
       </c>
@@ -4710,7 +4829,7 @@
       <c r="R47" s="110"/>
       <c r="S47" s="111"/>
     </row>
-    <row r="48" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>44</v>
       </c>
@@ -4737,7 +4856,7 @@
       <c r="R48" s="105"/>
       <c r="S48" s="115"/>
     </row>
-    <row r="49" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>45</v>
       </c>
@@ -4764,7 +4883,7 @@
       <c r="R49" s="110"/>
       <c r="S49" s="111"/>
     </row>
-    <row r="50" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>46</v>
       </c>
@@ -4791,7 +4910,7 @@
       <c r="R50" s="103"/>
       <c r="S50" s="113"/>
     </row>
-    <row r="51" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>47</v>
       </c>
@@ -4818,7 +4937,7 @@
       <c r="R51" s="103"/>
       <c r="S51" s="113"/>
     </row>
-    <row r="52" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>48</v>
       </c>
@@ -4845,7 +4964,7 @@
       <c r="R52" s="110"/>
       <c r="S52" s="111"/>
     </row>
-    <row r="53" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>49</v>
       </c>
@@ -4872,7 +4991,7 @@
       <c r="R53" s="108"/>
       <c r="S53" s="113"/>
     </row>
-    <row r="54" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>50</v>
       </c>
@@ -4899,7 +5018,7 @@
       <c r="R54" s="108"/>
       <c r="S54" s="113"/>
     </row>
-    <row r="55" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>51</v>
       </c>
@@ -4926,7 +5045,7 @@
       <c r="R55" s="110"/>
       <c r="S55" s="111"/>
     </row>
-    <row r="56" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>52</v>
       </c>
@@ -4953,7 +5072,7 @@
       <c r="R56" s="102"/>
       <c r="S56" s="109"/>
     </row>
-    <row r="57" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>53</v>
       </c>
@@ -4980,7 +5099,7 @@
       <c r="R57" s="102"/>
       <c r="S57" s="109"/>
     </row>
-    <row r="58" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>54</v>
       </c>
@@ -5007,7 +5126,7 @@
       <c r="R58" s="110"/>
       <c r="S58" s="111"/>
     </row>
-    <row r="59" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>55</v>
       </c>
@@ -5034,7 +5153,7 @@
       <c r="R59" s="108"/>
       <c r="S59" s="104"/>
     </row>
-    <row r="60" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>56</v>
       </c>
@@ -5061,7 +5180,7 @@
       <c r="R60" s="108"/>
       <c r="S60" s="113"/>
     </row>
-    <row r="61" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>57</v>
       </c>
@@ -5088,7 +5207,7 @@
       <c r="R61" s="110"/>
       <c r="S61" s="111"/>
     </row>
-    <row r="62" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>58</v>
       </c>
@@ -5115,7 +5234,7 @@
       <c r="R62" s="114"/>
       <c r="S62" s="115"/>
     </row>
-    <row r="63" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>59</v>
       </c>
@@ -5142,7 +5261,7 @@
       <c r="R63" s="110"/>
       <c r="S63" s="111"/>
     </row>
-    <row r="64" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>60</v>
       </c>
@@ -5169,7 +5288,7 @@
       <c r="R64" s="108"/>
       <c r="S64" s="113"/>
     </row>
-    <row r="65" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>61</v>
       </c>
@@ -5196,7 +5315,7 @@
       <c r="R65" s="108"/>
       <c r="S65" s="113"/>
     </row>
-    <row r="66" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>62</v>
       </c>
@@ -5223,7 +5342,7 @@
       <c r="R66" s="110"/>
       <c r="S66" s="111"/>
     </row>
-    <row r="67" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>63</v>
       </c>
@@ -5250,7 +5369,7 @@
       <c r="R67" s="108"/>
       <c r="S67" s="113"/>
     </row>
-    <row r="68" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>64</v>
       </c>
@@ -5277,7 +5396,7 @@
       <c r="R68" s="108"/>
       <c r="S68" s="113"/>
     </row>
-    <row r="69" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>65</v>
       </c>
@@ -5304,7 +5423,7 @@
       <c r="R69" s="110"/>
       <c r="S69" s="111"/>
     </row>
-    <row r="70" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>66</v>
       </c>
@@ -5331,7 +5450,7 @@
       <c r="R70" s="114"/>
       <c r="S70" s="115"/>
     </row>
-    <row r="71" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>67</v>
       </c>
@@ -5358,7 +5477,7 @@
       <c r="R71" s="114"/>
       <c r="S71" s="115"/>
     </row>
-    <row r="72" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>68</v>
       </c>
@@ -5385,7 +5504,7 @@
       <c r="R72" s="110"/>
       <c r="S72" s="111"/>
     </row>
-    <row r="73" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>69</v>
       </c>
@@ -5412,7 +5531,7 @@
       <c r="R73" s="107"/>
       <c r="S73" s="109"/>
     </row>
-    <row r="74" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>70</v>
       </c>
@@ -5439,7 +5558,7 @@
       <c r="R74" s="107"/>
       <c r="S74" s="109"/>
     </row>
-    <row r="75" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>71</v>
       </c>
@@ -5466,7 +5585,7 @@
       <c r="R75" s="110"/>
       <c r="S75" s="111"/>
     </row>
-    <row r="76" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -5493,7 +5612,7 @@
       <c r="R76" s="110"/>
       <c r="S76" s="111"/>
     </row>
-    <row r="77" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>73</v>
       </c>
@@ -5520,7 +5639,7 @@
       <c r="R77" s="108"/>
       <c r="S77" s="113"/>
     </row>
-    <row r="78" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:19" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>74</v>
       </c>
@@ -5547,7 +5666,7 @@
       <c r="R78" s="116"/>
       <c r="S78" s="117"/>
     </row>
-    <row r="79" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>75</v>
       </c>
@@ -5574,7 +5693,7 @@
       <c r="R79" s="17"/>
       <c r="S79" s="17"/>
     </row>
-    <row r="80" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>76</v>
       </c>
@@ -5601,7 +5720,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -5628,7 +5747,7 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>78</v>
       </c>
@@ -5655,7 +5774,7 @@
       <c r="R82" s="17"/>
       <c r="S82" s="17"/>
     </row>
-    <row r="83" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -5682,7 +5801,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>80</v>
       </c>
@@ -5709,7 +5828,7 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>81</v>
       </c>
@@ -5736,7 +5855,7 @@
       <c r="R85" s="17"/>
       <c r="S85" s="17"/>
     </row>
-    <row r="86" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -5781,22 +5900,22 @@
     <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="D80:S81">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:P9 G11:G12 K11:K12 P11:P12 D23:S24 D32:S33 D14:S15 D26:S27 D35:S36 D44:S44 D62:S62 D59:S60 D67:S68 D46:S46 D48:S48 D50:S51 D53:S54 D56:S57 D64:S65 D77:S78 D70:S71 D73:S74 D38:S39">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:S84">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86:S86">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5814,109 +5933,109 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" customWidth="1"/>
-    <col min="4" max="18" width="17.26953125" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="4" max="18" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="243" t="s">
+    <row r="1" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="246" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="226" t="s">
+      <c r="B1" s="257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="249" t="s">
+      <c r="D1" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="231"/>
-    </row>
-    <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="244"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="232" t="s">
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="241"/>
+      <c r="O1" s="241"/>
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="242"/>
+    </row>
+    <row r="2" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="255"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="232" t="s">
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="232" t="s">
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="237" t="s">
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="239"/>
-    </row>
-    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="244"/>
-      <c r="B3" s="247"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="232" t="s">
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="250"/>
+    </row>
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="255"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="235"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="246"/>
+      <c r="F3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="235"/>
-      <c r="H3" s="232" t="s">
+      <c r="G3" s="246"/>
+      <c r="H3" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="235"/>
-      <c r="J3" s="232" t="s">
+      <c r="I3" s="246"/>
+      <c r="J3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="235"/>
-      <c r="L3" s="232" t="s">
+      <c r="K3" s="246"/>
+      <c r="L3" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="234"/>
-      <c r="N3" s="232" t="s">
+      <c r="M3" s="245"/>
+      <c r="N3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="235"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="252"/>
-    </row>
-    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="245"/>
-      <c r="B4" s="248"/>
-      <c r="C4" s="228"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="262"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="263"/>
+    </row>
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="256"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="239"/>
       <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
@@ -5966,7 +6085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39">
         <v>0</v>
       </c>
@@ -6039,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45">
         <v>101</v>
       </c>
@@ -6066,7 +6185,7 @@
       <c r="R6" s="124"/>
       <c r="S6" s="125"/>
     </row>
-    <row r="7" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>102</v>
       </c>
@@ -6093,7 +6212,7 @@
       <c r="R7" s="127"/>
       <c r="S7" s="130"/>
     </row>
-    <row r="8" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>103</v>
       </c>
@@ -6120,7 +6239,7 @@
       <c r="R8" s="132"/>
       <c r="S8" s="134"/>
     </row>
-    <row r="9" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>104</v>
       </c>
@@ -6147,7 +6266,7 @@
       <c r="R9" s="132"/>
       <c r="S9" s="134"/>
     </row>
-    <row r="10" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>105</v>
       </c>
@@ -6174,7 +6293,7 @@
       <c r="R10" s="110"/>
       <c r="S10" s="111"/>
     </row>
-    <row r="11" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>106</v>
       </c>
@@ -6201,7 +6320,7 @@
       <c r="R11" s="63"/>
       <c r="S11" s="135"/>
     </row>
-    <row r="12" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>107</v>
       </c>
@@ -6228,7 +6347,7 @@
       <c r="R12" s="63"/>
       <c r="S12" s="135"/>
     </row>
-    <row r="13" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>108</v>
       </c>
@@ -6255,7 +6374,7 @@
       <c r="R13" s="110"/>
       <c r="S13" s="111"/>
     </row>
-    <row r="14" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>109</v>
       </c>
@@ -6282,7 +6401,7 @@
       <c r="R14" s="107"/>
       <c r="S14" s="109"/>
     </row>
-    <row r="15" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>110</v>
       </c>
@@ -6309,7 +6428,7 @@
       <c r="R15" s="107"/>
       <c r="S15" s="109"/>
     </row>
-    <row r="16" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>111</v>
       </c>
@@ -6336,7 +6455,7 @@
       <c r="R16" s="110"/>
       <c r="S16" s="111"/>
     </row>
-    <row r="17" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>112</v>
       </c>
@@ -6363,7 +6482,7 @@
       <c r="R17" s="108"/>
       <c r="S17" s="109"/>
     </row>
-    <row r="18" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>113</v>
       </c>
@@ -6390,7 +6509,7 @@
       <c r="R18" s="108"/>
       <c r="S18" s="109"/>
     </row>
-    <row r="19" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>114</v>
       </c>
@@ -6417,7 +6536,7 @@
       <c r="R19" s="110"/>
       <c r="S19" s="111"/>
     </row>
-    <row r="20" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>115</v>
       </c>
@@ -6444,7 +6563,7 @@
       <c r="R20" s="107"/>
       <c r="S20" s="109"/>
     </row>
-    <row r="21" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>116</v>
       </c>
@@ -6471,7 +6590,7 @@
       <c r="R21" s="107"/>
       <c r="S21" s="109"/>
     </row>
-    <row r="22" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>117</v>
       </c>
@@ -6498,7 +6617,7 @@
       <c r="R22" s="110"/>
       <c r="S22" s="111"/>
     </row>
-    <row r="23" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>118</v>
       </c>
@@ -6525,7 +6644,7 @@
       <c r="R23" s="107"/>
       <c r="S23" s="109"/>
     </row>
-    <row r="24" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>119</v>
       </c>
@@ -6552,7 +6671,7 @@
       <c r="R24" s="107"/>
       <c r="S24" s="109"/>
     </row>
-    <row r="25" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>120</v>
       </c>
@@ -6579,7 +6698,7 @@
       <c r="R25" s="110"/>
       <c r="S25" s="111"/>
     </row>
-    <row r="26" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>121</v>
       </c>
@@ -6606,7 +6725,7 @@
       <c r="R26" s="136"/>
       <c r="S26" s="137"/>
     </row>
-    <row r="27" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>122</v>
       </c>
@@ -6633,7 +6752,7 @@
       <c r="R27" s="136"/>
       <c r="S27" s="137"/>
     </row>
-    <row r="28" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>123</v>
       </c>
@@ -6660,7 +6779,7 @@
       <c r="R28" s="110"/>
       <c r="S28" s="111"/>
     </row>
-    <row r="29" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>124</v>
       </c>
@@ -6687,7 +6806,7 @@
       <c r="R29" s="107"/>
       <c r="S29" s="109"/>
     </row>
-    <row r="30" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>125</v>
       </c>
@@ -6714,7 +6833,7 @@
       <c r="R30" s="107"/>
       <c r="S30" s="109"/>
     </row>
-    <row r="31" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>126</v>
       </c>
@@ -6741,7 +6860,7 @@
       <c r="R31" s="110"/>
       <c r="S31" s="111"/>
     </row>
-    <row r="32" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>127</v>
       </c>
@@ -6768,7 +6887,7 @@
       <c r="R32" s="107"/>
       <c r="S32" s="109"/>
     </row>
-    <row r="33" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>128</v>
       </c>
@@ -6795,7 +6914,7 @@
       <c r="R33" s="107"/>
       <c r="S33" s="109"/>
     </row>
-    <row r="34" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>129</v>
       </c>
@@ -6822,7 +6941,7 @@
       <c r="R34" s="110"/>
       <c r="S34" s="111"/>
     </row>
-    <row r="35" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>130</v>
       </c>
@@ -6849,7 +6968,7 @@
       <c r="R35" s="108"/>
       <c r="S35" s="113"/>
     </row>
-    <row r="36" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>131</v>
       </c>
@@ -6876,7 +6995,7 @@
       <c r="R36" s="108"/>
       <c r="S36" s="113"/>
     </row>
-    <row r="37" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>132</v>
       </c>
@@ -6903,7 +7022,7 @@
       <c r="R37" s="110"/>
       <c r="S37" s="111"/>
     </row>
-    <row r="38" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>134</v>
       </c>
@@ -6930,7 +7049,7 @@
       <c r="R38" s="114"/>
       <c r="S38" s="113"/>
     </row>
-    <row r="39" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>135</v>
       </c>
@@ -6957,7 +7076,7 @@
       <c r="R39" s="114"/>
       <c r="S39" s="113"/>
     </row>
-    <row r="40" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>136</v>
       </c>
@@ -6984,7 +7103,7 @@
       <c r="R40" s="110"/>
       <c r="S40" s="111"/>
     </row>
-    <row r="41" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>137</v>
       </c>
@@ -7011,7 +7130,7 @@
       <c r="R41" s="107"/>
       <c r="S41" s="109"/>
     </row>
-    <row r="42" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>138</v>
       </c>
@@ -7038,7 +7157,7 @@
       <c r="R42" s="132"/>
       <c r="S42" s="109"/>
     </row>
-    <row r="43" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>139</v>
       </c>
@@ -7065,7 +7184,7 @@
       <c r="R43" s="110"/>
       <c r="S43" s="111"/>
     </row>
-    <row r="44" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>140</v>
       </c>
@@ -7092,7 +7211,7 @@
       <c r="R44" s="136"/>
       <c r="S44" s="138"/>
     </row>
-    <row r="45" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>141</v>
       </c>
@@ -7119,7 +7238,7 @@
       <c r="R45" s="110"/>
       <c r="S45" s="111"/>
     </row>
-    <row r="46" spans="1:19" s="68" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" s="68" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A46" s="67">
         <v>142</v>
       </c>
@@ -7146,7 +7265,7 @@
       <c r="R46" s="132"/>
       <c r="S46" s="138"/>
     </row>
-    <row r="47" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>143</v>
       </c>
@@ -7173,7 +7292,7 @@
       <c r="R47" s="110"/>
       <c r="S47" s="111"/>
     </row>
-    <row r="48" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>144</v>
       </c>
@@ -7200,7 +7319,7 @@
       <c r="R48" s="132"/>
       <c r="S48" s="137"/>
     </row>
-    <row r="49" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>145</v>
       </c>
@@ -7227,7 +7346,7 @@
       <c r="R49" s="110"/>
       <c r="S49" s="111"/>
     </row>
-    <row r="50" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>146</v>
       </c>
@@ -7254,7 +7373,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="137"/>
     </row>
-    <row r="51" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>147</v>
       </c>
@@ -7281,7 +7400,7 @@
       <c r="R51" s="63"/>
       <c r="S51" s="137"/>
     </row>
-    <row r="52" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>148</v>
       </c>
@@ -7308,7 +7427,7 @@
       <c r="R52" s="110"/>
       <c r="S52" s="111"/>
     </row>
-    <row r="53" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>149</v>
       </c>
@@ -7335,7 +7454,7 @@
       <c r="R53" s="132"/>
       <c r="S53" s="137"/>
     </row>
-    <row r="54" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>150</v>
       </c>
@@ -7362,7 +7481,7 @@
       <c r="R54" s="132"/>
       <c r="S54" s="137"/>
     </row>
-    <row r="55" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>151</v>
       </c>
@@ -7389,7 +7508,7 @@
       <c r="R55" s="110"/>
       <c r="S55" s="111"/>
     </row>
-    <row r="56" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>152</v>
       </c>
@@ -7416,7 +7535,7 @@
       <c r="R56" s="102"/>
       <c r="S56" s="109"/>
     </row>
-    <row r="57" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>153</v>
       </c>
@@ -7443,7 +7562,7 @@
       <c r="R57" s="102"/>
       <c r="S57" s="109"/>
     </row>
-    <row r="58" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>154</v>
       </c>
@@ -7470,7 +7589,7 @@
       <c r="R58" s="110"/>
       <c r="S58" s="111"/>
     </row>
-    <row r="59" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>155</v>
       </c>
@@ -7497,7 +7616,7 @@
       <c r="R59" s="132"/>
       <c r="S59" s="134"/>
     </row>
-    <row r="60" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>156</v>
       </c>
@@ -7524,7 +7643,7 @@
       <c r="R60" s="132"/>
       <c r="S60" s="134"/>
     </row>
-    <row r="61" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>157</v>
       </c>
@@ -7551,7 +7670,7 @@
       <c r="R61" s="110"/>
       <c r="S61" s="111"/>
     </row>
-    <row r="62" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>158</v>
       </c>
@@ -7578,7 +7697,7 @@
       <c r="R62" s="132"/>
       <c r="S62" s="120"/>
     </row>
-    <row r="63" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>159</v>
       </c>
@@ -7605,7 +7724,7 @@
       <c r="R63" s="132"/>
       <c r="S63" s="137"/>
     </row>
-    <row r="64" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>160</v>
       </c>
@@ -7632,7 +7751,7 @@
       <c r="R64" s="110"/>
       <c r="S64" s="111"/>
     </row>
-    <row r="65" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>161</v>
       </c>
@@ -7659,7 +7778,7 @@
       <c r="R65" s="144"/>
       <c r="S65" s="138"/>
     </row>
-    <row r="66" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>162</v>
       </c>
@@ -7686,7 +7805,7 @@
       <c r="R66" s="110"/>
       <c r="S66" s="111"/>
     </row>
-    <row r="67" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>163</v>
       </c>
@@ -7713,7 +7832,7 @@
       <c r="R67" s="132"/>
       <c r="S67" s="137"/>
     </row>
-    <row r="68" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>164</v>
       </c>
@@ -7740,7 +7859,7 @@
       <c r="R68" s="132"/>
       <c r="S68" s="137"/>
     </row>
-    <row r="69" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>165</v>
       </c>
@@ -7767,7 +7886,7 @@
       <c r="R69" s="110"/>
       <c r="S69" s="111"/>
     </row>
-    <row r="70" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>166</v>
       </c>
@@ -7794,7 +7913,7 @@
       <c r="R70" s="132"/>
       <c r="S70" s="137"/>
     </row>
-    <row r="71" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>167</v>
       </c>
@@ -7821,7 +7940,7 @@
       <c r="R71" s="132"/>
       <c r="S71" s="137"/>
     </row>
-    <row r="72" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>168</v>
       </c>
@@ -7848,7 +7967,7 @@
       <c r="R72" s="110"/>
       <c r="S72" s="111"/>
     </row>
-    <row r="73" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>169</v>
       </c>
@@ -7875,7 +7994,7 @@
       <c r="R73" s="144"/>
       <c r="S73" s="138"/>
     </row>
-    <row r="74" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>170</v>
       </c>
@@ -7902,7 +8021,7 @@
       <c r="R74" s="144"/>
       <c r="S74" s="138"/>
     </row>
-    <row r="75" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>171</v>
       </c>
@@ -7929,7 +8048,7 @@
       <c r="R75" s="110"/>
       <c r="S75" s="111"/>
     </row>
-    <row r="76" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>172</v>
       </c>
@@ -7956,7 +8075,7 @@
       <c r="R76" s="131"/>
       <c r="S76" s="138"/>
     </row>
-    <row r="77" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>173</v>
       </c>
@@ -7983,7 +8102,7 @@
       <c r="R77" s="131"/>
       <c r="S77" s="138"/>
     </row>
-    <row r="78" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>174</v>
       </c>
@@ -8010,7 +8129,7 @@
       <c r="R78" s="17"/>
       <c r="S78" s="111"/>
     </row>
-    <row r="79" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>175</v>
       </c>
@@ -8037,7 +8156,7 @@
       <c r="R79" s="110"/>
       <c r="S79" s="111"/>
     </row>
-    <row r="80" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>176</v>
       </c>
@@ -8064,7 +8183,7 @@
       <c r="R80" s="110"/>
       <c r="S80" s="111"/>
     </row>
-    <row r="81" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>177</v>
       </c>
@@ -8091,7 +8210,7 @@
       <c r="R81" s="110"/>
       <c r="S81" s="111"/>
     </row>
-    <row r="82" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>178</v>
       </c>
@@ -8118,7 +8237,7 @@
       <c r="R82" s="131"/>
       <c r="S82" s="137"/>
     </row>
-    <row r="83" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>179</v>
       </c>
@@ -8145,7 +8264,7 @@
       <c r="R83" s="131"/>
       <c r="S83" s="137"/>
     </row>
-    <row r="84" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>180</v>
       </c>
@@ -8172,7 +8291,7 @@
       <c r="R84" s="110"/>
       <c r="S84" s="111"/>
     </row>
-    <row r="85" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>181</v>
       </c>
@@ -8199,7 +8318,7 @@
       <c r="R85" s="131"/>
       <c r="S85" s="137"/>
     </row>
-    <row r="86" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>182</v>
       </c>
@@ -8226,7 +8345,7 @@
       <c r="R86" s="131"/>
       <c r="S86" s="137"/>
     </row>
-    <row r="87" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>183</v>
       </c>
@@ -8253,7 +8372,7 @@
       <c r="R87" s="110"/>
       <c r="S87" s="111"/>
     </row>
-    <row r="88" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>184</v>
       </c>
@@ -8280,7 +8399,7 @@
       <c r="R88" s="131"/>
       <c r="S88" s="137"/>
     </row>
-    <row r="89" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>185</v>
       </c>
@@ -8307,7 +8426,7 @@
       <c r="R89" s="131"/>
       <c r="S89" s="137"/>
     </row>
-    <row r="90" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>186</v>
       </c>
@@ -8334,7 +8453,7 @@
       <c r="R90" s="110"/>
       <c r="S90" s="111"/>
     </row>
-    <row r="91" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>187</v>
       </c>
@@ -8361,7 +8480,7 @@
       <c r="R91" s="131"/>
       <c r="S91" s="137"/>
     </row>
-    <row r="92" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <v>188</v>
       </c>
@@ -8388,7 +8507,7 @@
       <c r="R92" s="131"/>
       <c r="S92" s="137"/>
     </row>
-    <row r="93" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <v>189</v>
       </c>
@@ -8415,7 +8534,7 @@
       <c r="R93" s="110"/>
       <c r="S93" s="111"/>
     </row>
-    <row r="94" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <v>190</v>
       </c>
@@ -8442,7 +8561,7 @@
       <c r="R94" s="131"/>
       <c r="S94" s="137"/>
     </row>
-    <row r="95" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>191</v>
       </c>
@@ -8469,7 +8588,7 @@
       <c r="R95" s="131"/>
       <c r="S95" s="137"/>
     </row>
-    <row r="96" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <v>192</v>
       </c>
@@ -8496,7 +8615,7 @@
       <c r="R96" s="110"/>
       <c r="S96" s="111"/>
     </row>
-    <row r="97" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <v>193</v>
       </c>
@@ -8523,7 +8642,7 @@
       <c r="R97" s="131"/>
       <c r="S97" s="137"/>
     </row>
-    <row r="98" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <v>194</v>
       </c>
@@ -8550,7 +8669,7 @@
       <c r="R98" s="131"/>
       <c r="S98" s="137"/>
     </row>
-    <row r="99" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <v>195</v>
       </c>
@@ -8577,7 +8696,7 @@
       <c r="R99" s="110"/>
       <c r="S99" s="111"/>
     </row>
-    <row r="100" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>196</v>
       </c>
@@ -8604,7 +8723,7 @@
       <c r="R100" s="136"/>
       <c r="S100" s="138"/>
     </row>
-    <row r="101" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <v>197</v>
       </c>
@@ -8631,7 +8750,7 @@
       <c r="R101" s="136"/>
       <c r="S101" s="138"/>
     </row>
-    <row r="102" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" ht="69.75" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>198</v>
       </c>
@@ -8658,7 +8777,7 @@
       <c r="R102" s="110"/>
       <c r="S102" s="111"/>
     </row>
-    <row r="103" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" ht="69.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>199</v>
       </c>
@@ -8685,7 +8804,7 @@
       <c r="R103" s="136"/>
       <c r="S103" s="138"/>
     </row>
-    <row r="104" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" ht="69.75" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>200</v>
       </c>
@@ -8712,7 +8831,7 @@
       <c r="R104" s="136"/>
       <c r="S104" s="138"/>
     </row>
-    <row r="105" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <v>201</v>
       </c>
@@ -8739,7 +8858,7 @@
       <c r="R105" s="110"/>
       <c r="S105" s="111"/>
     </row>
-    <row r="106" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <v>202</v>
       </c>
@@ -8766,7 +8885,7 @@
       <c r="R106" s="136"/>
       <c r="S106" s="138"/>
     </row>
-    <row r="107" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <v>203</v>
       </c>
@@ -8793,7 +8912,7 @@
       <c r="R107" s="136"/>
       <c r="S107" s="138"/>
     </row>
-    <row r="108" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <v>204</v>
       </c>
@@ -8820,7 +8939,7 @@
       <c r="R108" s="110"/>
       <c r="S108" s="111"/>
     </row>
-    <row r="109" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <v>205</v>
       </c>
@@ -8847,7 +8966,7 @@
       <c r="R109" s="136"/>
       <c r="S109" s="138"/>
     </row>
-    <row r="110" spans="1:19" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A110" s="11">
         <v>206</v>
       </c>
@@ -8874,7 +8993,7 @@
       <c r="R110" s="136"/>
       <c r="S110" s="138"/>
     </row>
-    <row r="111" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A111" s="11">
         <v>207</v>
       </c>
@@ -8901,7 +9020,7 @@
       <c r="R111" s="110"/>
       <c r="S111" s="111"/>
     </row>
-    <row r="112" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <v>208</v>
       </c>
@@ -8928,7 +9047,7 @@
       <c r="R112" s="136"/>
       <c r="S112" s="138"/>
     </row>
-    <row r="113" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <v>209</v>
       </c>
@@ -8955,7 +9074,7 @@
       <c r="R113" s="136"/>
       <c r="S113" s="138"/>
     </row>
-    <row r="114" spans="1:19" ht="47" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>210</v>
       </c>
@@ -8982,7 +9101,7 @@
       <c r="R114" s="110"/>
       <c r="S114" s="110"/>
     </row>
-    <row r="115" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>211</v>
       </c>
@@ -9009,7 +9128,7 @@
       <c r="R115" s="17"/>
       <c r="S115" s="17"/>
     </row>
-    <row r="116" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>212</v>
       </c>
@@ -9036,7 +9155,7 @@
       <c r="R116" s="71"/>
       <c r="S116" s="71"/>
     </row>
-    <row r="117" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>213</v>
       </c>
@@ -9063,7 +9182,7 @@
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
     </row>
-    <row r="118" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>214</v>
       </c>
@@ -9090,7 +9209,7 @@
       <c r="R118" s="17"/>
       <c r="S118" s="17"/>
     </row>
-    <row r="119" spans="1:19" s="49" customFormat="1" ht="47" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" s="49" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>215</v>
       </c>
@@ -9135,22 +9254,22 @@
     <mergeCell ref="L3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="D116:S117">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12 L7:P9 G29:G30 K29:P30 D23:S24 G41:G42 L17:P18 D14:F15 H14:I15 L11:P12 L14:P15 L20:P21 D26:S27 D32:S33 D35:S36 K41:P42 D44:S44 D46:S46 D48:S48 D50:S51 D53:S54 D56:S57 D59:S60 D62:S63 D65:S65 D67:S68 D73:S74 D76:S77 D82:S83 D85:S86 D88:S89 D91:S92 D94:S95 D97:S98 D100:S101 D103:S104 D106:S107 D109:S110 D112:S113 E70:S71 D38:S39">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:S119">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9168,51 +9287,51 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.1796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="18.81640625" customWidth="1"/>
-    <col min="13" max="14" width="10.7265625" customWidth="1"/>
-    <col min="15" max="15" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="10.7265625" customWidth="1"/>
-    <col min="22" max="22" width="12.1796875" customWidth="1"/>
-    <col min="23" max="24" width="10.7265625" customWidth="1"/>
-    <col min="25" max="25" width="12.1796875" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="23" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="226" t="s">
+    <row r="1" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="257" t="s">
+      <c r="B1" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="257" t="s">
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="237" t="s">
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="239"/>
+      <c r="L1" s="250"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -9227,31 +9346,31 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="227"/>
-      <c r="B2" s="255"/>
-      <c r="C2" s="263" t="s">
+    <row r="2" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="238"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="264" t="s">
+      <c r="D2" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="260" t="s">
+      <c r="E2" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="260"/>
-      <c r="G2" s="264" t="s">
+      <c r="F2" s="271"/>
+      <c r="G2" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="264" t="s">
+      <c r="H2" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="261" t="s">
+      <c r="I2" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="262"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="242"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="253"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -9266,19 +9385,19 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="47.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="253"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="265"/>
+    <row r="3" spans="1:25" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="264"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
       <c r="I3" s="30" t="s">
         <v>14</v>
       </c>
@@ -9304,7 +9423,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="178">
         <v>0</v>
       </c>
@@ -9364,7 +9483,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>301</v>
       </c>
@@ -9394,7 +9513,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>302</v>
       </c>
@@ -9412,7 +9531,7 @@
       <c r="K6" s="54"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>303</v>
       </c>
@@ -9430,7 +9549,7 @@
       <c r="K7" s="54"/>
       <c r="L7" s="55"/>
     </row>
-    <row r="8" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>304</v>
       </c>
@@ -9448,7 +9567,7 @@
       <c r="K8" s="54"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>305</v>
       </c>
@@ -9466,7 +9585,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="55"/>
     </row>
-    <row r="10" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>306</v>
       </c>
@@ -9484,7 +9603,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>307</v>
       </c>
@@ -9502,7 +9621,7 @@
       <c r="K11" s="54"/>
       <c r="L11" s="55"/>
     </row>
-    <row r="12" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>308</v>
       </c>
@@ -9520,7 +9639,7 @@
       <c r="K12" s="54"/>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>309</v>
       </c>
@@ -9538,7 +9657,7 @@
       <c r="K13" s="54"/>
       <c r="L13" s="55"/>
     </row>
-    <row r="14" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>310</v>
       </c>
@@ -9556,7 +9675,7 @@
       <c r="K14" s="54"/>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>311</v>
       </c>
@@ -9574,7 +9693,7 @@
       <c r="K15" s="54"/>
       <c r="L15" s="55"/>
     </row>
-    <row r="16" spans="1:25" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>312</v>
       </c>
@@ -9592,7 +9711,7 @@
       <c r="K16" s="54"/>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>313</v>
       </c>
@@ -9610,7 +9729,7 @@
       <c r="K17" s="54"/>
       <c r="L17" s="55"/>
     </row>
-    <row r="18" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>314</v>
       </c>
@@ -9628,7 +9747,7 @@
       <c r="K18" s="54"/>
       <c r="L18" s="55"/>
     </row>
-    <row r="19" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>315</v>
       </c>
@@ -9646,7 +9765,7 @@
       <c r="K19" s="54"/>
       <c r="L19" s="55"/>
     </row>
-    <row r="20" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>316</v>
       </c>
@@ -9664,7 +9783,7 @@
       <c r="K20" s="54"/>
       <c r="L20" s="55"/>
     </row>
-    <row r="21" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>317</v>
       </c>
@@ -9682,7 +9801,7 @@
       <c r="K21" s="54"/>
       <c r="L21" s="55"/>
     </row>
-    <row r="22" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>318</v>
       </c>
@@ -9700,7 +9819,7 @@
       <c r="K22" s="54"/>
       <c r="L22" s="55"/>
     </row>
-    <row r="23" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>319</v>
       </c>
@@ -9718,7 +9837,7 @@
       <c r="K23" s="54"/>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>320</v>
       </c>
@@ -9736,7 +9855,7 @@
       <c r="K24" s="54"/>
       <c r="L24" s="55"/>
     </row>
-    <row r="25" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>321</v>
       </c>
@@ -9754,7 +9873,7 @@
       <c r="K25" s="54"/>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>322</v>
       </c>
@@ -9772,7 +9891,7 @@
       <c r="K26" s="54"/>
       <c r="L26" s="55"/>
     </row>
-    <row r="27" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>323</v>
       </c>
@@ -9790,7 +9909,7 @@
       <c r="K27" s="54"/>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>324</v>
       </c>
@@ -9808,7 +9927,7 @@
       <c r="K28" s="54"/>
       <c r="L28" s="55"/>
     </row>
-    <row r="29" spans="1:12" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>325</v>
       </c>
@@ -9826,7 +9945,7 @@
       <c r="K29" s="54"/>
       <c r="L29" s="55"/>
     </row>
-    <row r="30" spans="1:12" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>326</v>
       </c>
@@ -9844,7 +9963,7 @@
       <c r="K30" s="54"/>
       <c r="L30" s="55"/>
     </row>
-    <row r="31" spans="1:12" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>327</v>
       </c>
@@ -9862,7 +9981,7 @@
       <c r="K31" s="54"/>
       <c r="L31" s="55"/>
     </row>
-    <row r="32" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>328</v>
       </c>
@@ -9880,7 +9999,7 @@
       <c r="K32" s="54"/>
       <c r="L32" s="55"/>
     </row>
-    <row r="33" spans="1:12" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>329</v>
       </c>
@@ -9898,7 +10017,7 @@
       <c r="K33" s="54"/>
       <c r="L33" s="55"/>
     </row>
-    <row r="34" spans="1:12" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>330</v>
       </c>
@@ -9916,7 +10035,7 @@
       <c r="K34" s="54"/>
       <c r="L34" s="55"/>
     </row>
-    <row r="35" spans="1:12" s="49" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:12" s="49" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="180">
         <v>331</v>
       </c>
@@ -9949,7 +10068,7 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:L5">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9961,39 +10080,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="49"/>
-    <col min="2" max="2" width="107.1796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="49"/>
+    <col min="2" max="2" width="107.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="226" t="s">
+    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="270" t="s">
+      <c r="B1" s="265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="281" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="267" t="s">
+      <c r="D1" s="278" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="268"/>
-      <c r="F1" s="269"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="228"/>
-      <c r="B2" s="266"/>
-      <c r="C2" s="271"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="280"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="239"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="282"/>
       <c r="D2" s="52" t="s">
         <v>77</v>
       </c>
@@ -10004,7 +10123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="49" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="49" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="178">
         <v>0</v>
       </c>
@@ -10028,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>401</v>
       </c>
@@ -10040,7 +10159,7 @@
       <c r="E4" s="61"/>
       <c r="F4" s="62"/>
     </row>
-    <row r="5" spans="1:6" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>402</v>
       </c>
@@ -10052,7 +10171,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>403</v>
       </c>
@@ -10064,7 +10183,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
     </row>
-    <row r="7" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>404</v>
       </c>
@@ -10076,7 +10195,7 @@
       <c r="E7" s="54"/>
       <c r="F7" s="55"/>
     </row>
-    <row r="8" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>405</v>
       </c>
@@ -10088,7 +10207,7 @@
       <c r="E8" s="54"/>
       <c r="F8" s="55"/>
     </row>
-    <row r="9" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>406</v>
       </c>
@@ -10100,7 +10219,7 @@
       <c r="E9" s="54"/>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>407</v>
       </c>
@@ -10112,7 +10231,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
     </row>
-    <row r="11" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>408</v>
       </c>
@@ -10124,7 +10243,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="55"/>
     </row>
-    <row r="12" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>409</v>
       </c>
@@ -10136,7 +10255,7 @@
       <c r="E12" s="54"/>
       <c r="F12" s="55"/>
     </row>
-    <row r="13" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>410</v>
       </c>
@@ -10148,7 +10267,7 @@
       <c r="E13" s="54"/>
       <c r="F13" s="55"/>
     </row>
-    <row r="14" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>411</v>
       </c>
@@ -10160,7 +10279,7 @@
       <c r="E14" s="54"/>
       <c r="F14" s="55"/>
     </row>
-    <row r="15" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>412</v>
       </c>
@@ -10172,7 +10291,7 @@
       <c r="E15" s="54"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>413</v>
       </c>
@@ -10184,7 +10303,7 @@
       <c r="E16" s="54"/>
       <c r="F16" s="55"/>
     </row>
-    <row r="17" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>414</v>
       </c>
@@ -10196,7 +10315,7 @@
       <c r="E17" s="54"/>
       <c r="F17" s="55"/>
     </row>
-    <row r="18" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>415</v>
       </c>
@@ -10208,7 +10327,7 @@
       <c r="E18" s="54"/>
       <c r="F18" s="55"/>
     </row>
-    <row r="19" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>416</v>
       </c>
@@ -10220,7 +10339,7 @@
       <c r="E19" s="54"/>
       <c r="F19" s="55"/>
     </row>
-    <row r="20" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>417</v>
       </c>
@@ -10232,7 +10351,7 @@
       <c r="E20" s="54"/>
       <c r="F20" s="55"/>
     </row>
-    <row r="21" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>418</v>
       </c>
@@ -10244,7 +10363,7 @@
       <c r="E21" s="54"/>
       <c r="F21" s="55"/>
     </row>
-    <row r="22" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>419</v>
       </c>
@@ -10256,7 +10375,7 @@
       <c r="E22" s="54"/>
       <c r="F22" s="55"/>
     </row>
-    <row r="23" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>420</v>
       </c>
@@ -10268,7 +10387,7 @@
       <c r="E23" s="54"/>
       <c r="F23" s="55"/>
     </row>
-    <row r="24" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>421</v>
       </c>
@@ -10280,7 +10399,7 @@
       <c r="E24" s="54"/>
       <c r="F24" s="55"/>
     </row>
-    <row r="25" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>422</v>
       </c>
@@ -10292,7 +10411,7 @@
       <c r="E25" s="54"/>
       <c r="F25" s="55"/>
     </row>
-    <row r="26" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>423</v>
       </c>
@@ -10304,7 +10423,7 @@
       <c r="E26" s="54"/>
       <c r="F26" s="55"/>
     </row>
-    <row r="27" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>424</v>
       </c>
@@ -10316,7 +10435,7 @@
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
     </row>
-    <row r="28" spans="1:6" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>425</v>
       </c>
@@ -10328,7 +10447,7 @@
       <c r="E28" s="54"/>
       <c r="F28" s="55"/>
     </row>
-    <row r="29" spans="1:6" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>426</v>
       </c>
@@ -10340,7 +10459,7 @@
       <c r="E29" s="54"/>
       <c r="F29" s="55"/>
     </row>
-    <row r="30" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>427</v>
       </c>
@@ -10352,7 +10471,7 @@
       <c r="E30" s="54"/>
       <c r="F30" s="55"/>
     </row>
-    <row r="31" spans="1:6" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>428</v>
       </c>
@@ -10364,7 +10483,7 @@
       <c r="E31" s="54"/>
       <c r="F31" s="55"/>
     </row>
-    <row r="32" spans="1:6" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>429</v>
       </c>
@@ -10376,7 +10495,7 @@
       <c r="E32" s="54"/>
       <c r="F32" s="55"/>
     </row>
-    <row r="33" spans="1:6" s="49" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" s="49" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>430</v>
       </c>
@@ -10388,7 +10507,7 @@
       <c r="E33" s="54"/>
       <c r="F33" s="55"/>
     </row>
-    <row r="34" spans="1:6" s="49" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" s="49" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="180">
         <v>431</v>
       </c>
@@ -10408,7 +10527,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:F3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10419,67 +10538,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="49"/>
+    <col min="1" max="1" width="9.140625" style="49"/>
     <col min="2" max="2" width="56" style="49" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="49" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="26" style="49" customWidth="1"/>
     <col min="8" max="8" width="28" style="49" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="49"/>
+    <col min="9" max="9" width="22.140625" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="49" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="49" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="49"/>
+    <col min="15" max="15" width="14.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G1" s="240" t="s">
+    <row r="1" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="251" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-    </row>
-    <row r="2" spans="1:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="223" t="s">
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+    </row>
+    <row r="2" spans="1:15" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="234" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="223" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="230" t="s">
+      <c r="B2" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="241" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="231"/>
-      <c r="E2" s="229" t="s">
+      <c r="D2" s="242"/>
+      <c r="E2" s="240" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="231"/>
+      <c r="F2" s="242"/>
       <c r="G2" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="H2" s="257" t="s">
+      <c r="H2" s="268" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="259"/>
-      <c r="J2" s="272" t="s">
+      <c r="I2" s="270"/>
+      <c r="J2" s="286" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="273"/>
-      <c r="L2" s="274"/>
-    </row>
-    <row r="3" spans="1:12" ht="47.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="225"/>
-      <c r="B3" s="225"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="283" t="s">
+        <v>288</v>
+      </c>
+      <c r="N2" s="284"/>
+      <c r="O2" s="285"/>
+    </row>
+    <row r="3" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="236"/>
+      <c r="B3" s="236"/>
       <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
@@ -10510,8 +10637,17 @@
       <c r="L3" s="153" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M3" s="223" t="s">
+        <v>286</v>
+      </c>
+      <c r="N3" s="223" t="s">
+        <v>287</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45">
         <v>0</v>
       </c>
@@ -10521,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="196">
-        <f t="shared" ref="D4:L4" si="0">SUM(D5:D46)</f>
+        <f t="shared" ref="D4:N4" si="0">SUM(D5:D46)</f>
         <v>0</v>
       </c>
       <c r="E4" s="196">
@@ -10556,8 +10692,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M4" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="224">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="229">
+        <f>M4-N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="39">
         <v>101</v>
       </c>
@@ -10604,8 +10752,20 @@
         <f t="shared" ref="L5:L44" si="3">D5-G5-I5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M5" s="97">
+        <f>Cвод_ОРВИ_и_Пневм!F6+Cвод_ОРВИ_и_Пневм!G6</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="225">
+        <f>Отчет_СЮС!N36+Отчет_СЮС!AD36</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="230">
+        <f t="shared" ref="O5:O46" si="4">M5-N5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>105</v>
       </c>
@@ -10652,8 +10812,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M6" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F10+Cвод_ОРВИ_и_Пневм!G10</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="226">
+        <f>Отчет_СЮС!N10+Отчет_СЮС!AD10</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>108</v>
       </c>
@@ -10700,8 +10872,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M7" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F13+Cвод_ОРВИ_и_Пневм!G13</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="226">
+        <f>Отчет_СЮС!N31+Отчет_СЮС!AD31+Отчет_СЮС!N32+Отчет_СЮС!AD32</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>111</v>
       </c>
@@ -10748,8 +10932,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F16+Cвод_ОРВИ_и_Пневм!G16</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="226">
+        <f>Отчет_СЮС!N12+Отчет_СЮС!AD12</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>114</v>
       </c>
@@ -10796,8 +10992,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="160" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F19+Cвод_ОРВИ_и_Пневм!G19</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="226">
+        <f>Отчет_СЮС!N17+Отчет_СЮС!AD17</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="160" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>117</v>
       </c>
@@ -10844,8 +11052,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M10" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F22+Cвод_ОРВИ_и_Пневм!G22</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="227">
+        <f>Отчет_СЮС!N9+Отчет_СЮС!AD9</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="232">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>120</v>
       </c>
@@ -10892,8 +11112,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M11" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F25+Cвод_ОРВИ_и_Пневм!G25</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="226">
+        <f>Отчет_СЮС!N18+Отчет_СЮС!AD18</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>123</v>
       </c>
@@ -10940,8 +11172,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M12" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F28+Cвод_ОРВИ_и_Пневм!G28</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="226">
+        <f>Отчет_СЮС!N29+Отчет_СЮС!AD29+Отчет_СЮС!N30+Отчет_СЮС!AD30</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>126</v>
       </c>
@@ -10988,8 +11232,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M13" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F31+Cвод_ОРВИ_и_Пневм!G31</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="226">
+        <f>Отчет_СЮС!N16+Отчет_СЮС!AD16</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>129</v>
       </c>
@@ -11036,8 +11292,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M14" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F34+Cвод_ОРВИ_и_Пневм!G34</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="226">
+        <f>Отчет_СЮС!N24+Отчет_СЮС!AD24</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>132</v>
       </c>
@@ -11084,8 +11352,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M15" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F37+Cвод_ОРВИ_и_Пневм!G37</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="226">
+        <f>Отчет_СЮС!N28+Отчет_СЮС!AD28</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>136</v>
       </c>
@@ -11132,8 +11412,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M16" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F40+Cвод_ОРВИ_и_Пневм!G40</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="226">
+        <f>Отчет_СЮС!N15+Отчет_СЮС!AD15</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>139</v>
       </c>
@@ -11180,8 +11472,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M17" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F43+Cвод_ОРВИ_и_Пневм!G43</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="226">
+        <f>Отчет_СЮС!N59+Отчет_СЮС!AD59</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>141</v>
       </c>
@@ -11228,8 +11532,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M18" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F45+Cвод_ОРВИ_и_Пневм!G45</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="226">
+        <f>Отчет_СЮС!N77+Отчет_СЮС!AD77</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>143</v>
       </c>
@@ -11276,8 +11592,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M19" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F47+Cвод_ОРВИ_и_Пневм!G47</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="226">
+        <f>Отчет_СЮС!N76+Отчет_СЮС!AD76</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>145</v>
       </c>
@@ -11324,8 +11652,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M20" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F49+Cвод_ОРВИ_и_Пневм!G49</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="226">
+        <f>Отчет_СЮС!N40+Отчет_СЮС!AD40</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>148</v>
       </c>
@@ -11372,8 +11712,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M21" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F52+Cвод_ОРВИ_и_Пневм!G52</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="226">
+        <f>Отчет_СЮС!N38+Отчет_СЮС!AD38</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>151</v>
       </c>
@@ -11420,8 +11772,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M22" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F55+Cвод_ОРВИ_и_Пневм!G55</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="226">
+        <f>Отчет_СЮС!N33+Отчет_СЮС!AD33</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>154</v>
       </c>
@@ -11468,8 +11832,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M23" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F66+Cвод_ОРВИ_и_Пневм!G66</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="226">
+        <f>Отчет_СЮС!N65+Отчет_СЮС!AD65</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>157</v>
       </c>
@@ -11516,8 +11892,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M24" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F58+Cвод_ОРВИ_и_Пневм!G58</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="226">
+        <f>Отчет_СЮС!N66+Отчет_СЮС!AD66</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>160</v>
       </c>
@@ -11564,8 +11952,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M25" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F61+Cвод_ОРВИ_и_Пневм!G61</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="226">
+        <f>Отчет_СЮС!N82+Отчет_СЮС!AD82</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>162</v>
       </c>
@@ -11612,8 +12012,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M26" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F63+Cвод_ОРВИ_и_Пневм!G63</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="226">
+        <f>Отчет_СЮС!N67+Отчет_СЮС!AD67</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>165</v>
       </c>
@@ -11660,8 +12072,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M27" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F76+Cвод_ОРВИ_и_Пневм!G76</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="226">
+        <f>Отчет_СЮС!N27+Отчет_СЮС!AD27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>168</v>
       </c>
@@ -11708,8 +12132,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M28" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F69+Cвод_ОРВИ_и_Пневм!G69</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="226">
+        <f>Отчет_СЮС!N68+Отчет_СЮС!AD68</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>171</v>
       </c>
@@ -11756,8 +12192,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M29" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F72+Cвод_ОРВИ_и_Пневм!G72</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="226">
+        <f>Отчет_СЮС!N69+Отчет_СЮС!AD69</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>174</v>
       </c>
@@ -11804,8 +12252,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M30" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F75+Cвод_ОРВИ_и_Пневм!G75</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="226">
+        <f>Отчет_СЮС!N71+Отчет_СЮС!AD71</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>175</v>
       </c>
@@ -11837,8 +12297,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M31" s="98"/>
+      <c r="N31" s="226"/>
+      <c r="O31" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>176</v>
       </c>
@@ -11870,8 +12336,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M32" s="98"/>
+      <c r="N32" s="226"/>
+      <c r="O32" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>177</v>
       </c>
@@ -11903,8 +12375,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M33" s="98"/>
+      <c r="N33" s="226"/>
+      <c r="O33" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>180</v>
       </c>
@@ -11951,8 +12429,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M34" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F82+Cвод_ОРВИ_и_Пневм!G82</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="226">
+        <f>Отчет_СЮС!N25+Отчет_СЮС!AD25</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>183</v>
       </c>
@@ -11993,8 +12483,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M35" s="98"/>
+      <c r="N35" s="226">
+        <f>Отчет_СЮС!N11+Отчет_СЮС!AD11</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>186</v>
       </c>
@@ -12035,8 +12534,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M36" s="98"/>
+      <c r="N36" s="226">
+        <f>Отчет_СЮС!N21+Отчет_СЮС!AD21</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>189</v>
       </c>
@@ -12077,8 +12585,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M37" s="98"/>
+      <c r="N37" s="226">
+        <f>Отчет_СЮС!N22+Отчет_СЮС!AD22</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>192</v>
       </c>
@@ -12119,8 +12636,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M38" s="98"/>
+      <c r="N38" s="226">
+        <f>Отчет_СЮС!N14+Отчет_СЮС!AD14</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>195</v>
       </c>
@@ -12161,8 +12687,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M39" s="98"/>
+      <c r="N39" s="226">
+        <f>Отчет_СЮС!N23+Отчет_СЮС!AD23</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>198</v>
       </c>
@@ -12203,8 +12738,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M40" s="98"/>
+      <c r="N40" s="226">
+        <f>Отчет_СЮС!N26+Отчет_СЮС!AD26</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>201</v>
       </c>
@@ -12245,8 +12789,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="M41" s="98"/>
+      <c r="N41" s="226">
+        <f>Отчет_СЮС!N63+Отчет_СЮС!AD63</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>204</v>
       </c>
@@ -12287,8 +12840,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M42" s="98"/>
+      <c r="N42" s="226">
+        <f>Отчет_СЮС!N34+Отчет_СЮС!AD34</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>207</v>
       </c>
@@ -12320,8 +12882,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M43" s="98"/>
+      <c r="N43" s="226"/>
+      <c r="O43" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>210</v>
       </c>
@@ -12353,8 +12921,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="M44" s="98"/>
+      <c r="N44" s="226"/>
+      <c r="O44" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>211</v>
       </c>
@@ -12390,19 +12964,31 @@
         <v>0</v>
       </c>
       <c r="J45" s="155">
-        <f t="shared" ref="J45" si="4">E45-H45</f>
+        <f t="shared" ref="J45" si="5">E45-H45</f>
         <v>0</v>
       </c>
       <c r="K45" s="197">
-        <f t="shared" ref="K45" si="5">F45-I45</f>
+        <f t="shared" ref="K45" si="6">F45-I45</f>
         <v>0</v>
       </c>
       <c r="L45" s="149">
-        <f t="shared" ref="L45" si="6">D45-G45-I45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="47.5" thickBot="1" x14ac:dyDescent="0.6">
+        <f t="shared" ref="L45" si="7">D45-G45-I45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="98">
+        <f>Cвод_ОРВИ_и_Пневм!F79+Cвод_ОРВИ_и_Пневм!G79</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="226">
+        <f>Отчет_СЮС!N70+Отчет_СЮС!AD70</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="20">
         <v>214</v>
       </c>
@@ -12438,29 +13024,52 @@
         <v>0</v>
       </c>
       <c r="J46" s="156">
-        <f t="shared" ref="J46" si="7">E46-H46</f>
+        <f t="shared" ref="J46" si="8">E46-H46</f>
         <v>0</v>
       </c>
       <c r="K46" s="202">
-        <f t="shared" ref="K46" si="8">F46-I46</f>
+        <f t="shared" ref="K46" si="9">F46-I46</f>
         <v>0</v>
       </c>
       <c r="L46" s="150">
-        <f t="shared" ref="L46" si="9">D46-G46-I46</f>
+        <f t="shared" ref="L46" si="10">D46-G46-I46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="99">
+        <f>Cвод_ОРВИ_и_Пневм!F85+Cвод_ОРВИ_и_Пневм!G85</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="228">
+        <f>Отчет_СЮС!N79+Отчет_СЮС!AD79</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="233">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:F45"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="O5:Q100">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12470,201 +13079,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI83"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" style="74" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="74" customWidth="1"/>
-    <col min="4" max="7" width="9.1796875" style="74" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="74" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" style="74" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="74" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="74" customWidth="1"/>
     <col min="10" max="10" width="10" style="74" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="74" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="74" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="74" customWidth="1"/>
-    <col min="15" max="15" width="9.81640625" style="74" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="74" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="74" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="74" customWidth="1"/>
-    <col min="19" max="19" width="10.1796875" style="74" customWidth="1"/>
-    <col min="20" max="23" width="9.1796875" style="74" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="74" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="74" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="74" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="74" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="74" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="74" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="74" customWidth="1"/>
+    <col min="20" max="23" width="9.140625" style="74" customWidth="1"/>
     <col min="24" max="24" width="11" style="74" customWidth="1"/>
-    <col min="25" max="25" width="9.1796875" style="74" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="74" customWidth="1"/>
     <col min="26" max="26" width="11" style="74" customWidth="1"/>
-    <col min="27" max="27" width="9.1796875" style="74" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" style="74"/>
-    <col min="29" max="29" width="10.1796875" style="74" customWidth="1"/>
-    <col min="30" max="30" width="9.1796875" style="74" customWidth="1"/>
-    <col min="31" max="31" width="10.7265625" style="74" customWidth="1"/>
-    <col min="32" max="32" width="9.1796875" style="74" customWidth="1"/>
-    <col min="33" max="33" width="10.1796875" style="74" customWidth="1"/>
-    <col min="34" max="34" width="9.1796875" style="74" customWidth="1"/>
-    <col min="35" max="16384" width="9.1796875" style="74"/>
+    <col min="27" max="27" width="9.140625" style="74" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="74"/>
+    <col min="29" max="29" width="10.140625" style="74" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="74" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="74" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="74" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" style="74" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="74" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="1:34" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="283" t="s">
+    <row r="2" spans="1:34" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="298" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="298" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="304" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="287"/>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
-      <c r="Q2" s="287"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="288" t="s">
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="294"/>
+      <c r="M2" s="294"/>
+      <c r="N2" s="294"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="294"/>
+      <c r="Q2" s="294"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="305" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="287"/>
-      <c r="U2" s="287"/>
-      <c r="V2" s="287"/>
-      <c r="W2" s="287"/>
-      <c r="X2" s="287"/>
-      <c r="Y2" s="287"/>
-      <c r="Z2" s="287"/>
-      <c r="AA2" s="287"/>
-      <c r="AB2" s="287"/>
-      <c r="AC2" s="287"/>
-      <c r="AD2" s="287"/>
-      <c r="AE2" s="287"/>
-      <c r="AF2" s="287"/>
-      <c r="AG2" s="287"/>
-      <c r="AH2" s="282"/>
-    </row>
-    <row r="3" spans="1:34" s="75" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="284"/>
-      <c r="B3" s="284"/>
-      <c r="C3" s="281" t="s">
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="294"/>
+      <c r="AA2" s="294"/>
+      <c r="AB2" s="294"/>
+      <c r="AC2" s="294"/>
+      <c r="AD2" s="294"/>
+      <c r="AE2" s="294"/>
+      <c r="AF2" s="294"/>
+      <c r="AG2" s="294"/>
+      <c r="AH2" s="295"/>
+    </row>
+    <row r="3" spans="1:34" s="75" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="303"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="293" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="281" t="s">
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="293" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="282"/>
-      <c r="M3" s="290" t="s">
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="294"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="289" t="s">
         <v>90</v>
       </c>
-      <c r="N3" s="276"/>
-      <c r="O3" s="290" t="s">
+      <c r="N3" s="290"/>
+      <c r="O3" s="289" t="s">
         <v>91</v>
       </c>
-      <c r="P3" s="276"/>
-      <c r="Q3" s="290" t="s">
+      <c r="P3" s="290"/>
+      <c r="Q3" s="289" t="s">
         <v>92</v>
       </c>
-      <c r="R3" s="276"/>
-      <c r="S3" s="281" t="s">
+      <c r="R3" s="290"/>
+      <c r="S3" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="287"/>
-      <c r="U3" s="287"/>
-      <c r="V3" s="287"/>
-      <c r="W3" s="282"/>
-      <c r="X3" s="281" t="s">
+      <c r="T3" s="294"/>
+      <c r="U3" s="294"/>
+      <c r="V3" s="294"/>
+      <c r="W3" s="295"/>
+      <c r="X3" s="293" t="s">
         <v>94</v>
       </c>
-      <c r="Y3" s="287"/>
-      <c r="Z3" s="287"/>
-      <c r="AA3" s="287"/>
-      <c r="AB3" s="282"/>
-      <c r="AC3" s="290" t="s">
+      <c r="Y3" s="294"/>
+      <c r="Z3" s="294"/>
+      <c r="AA3" s="294"/>
+      <c r="AB3" s="295"/>
+      <c r="AC3" s="289" t="s">
         <v>90</v>
       </c>
-      <c r="AD3" s="276"/>
-      <c r="AE3" s="290" t="s">
+      <c r="AD3" s="290"/>
+      <c r="AE3" s="289" t="s">
         <v>91</v>
       </c>
-      <c r="AF3" s="276"/>
-      <c r="AG3" s="290" t="s">
+      <c r="AF3" s="290"/>
+      <c r="AG3" s="289" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="276"/>
-    </row>
-    <row r="4" spans="1:34" s="75" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="284"/>
-      <c r="B4" s="284"/>
-      <c r="C4" s="279" t="s">
+      <c r="AH3" s="290"/>
+    </row>
+    <row r="4" spans="1:34" s="75" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="303"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="281" t="s">
+      <c r="D4" s="293" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="282"/>
-      <c r="F4" s="281" t="s">
+      <c r="E4" s="295"/>
+      <c r="F4" s="293" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="282"/>
-      <c r="H4" s="283" t="s">
+      <c r="G4" s="295"/>
+      <c r="H4" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="283" t="s">
+      <c r="I4" s="298" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="281" t="s">
+      <c r="J4" s="293" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="287"/>
-      <c r="L4" s="282"/>
+      <c r="K4" s="294"/>
+      <c r="L4" s="295"/>
       <c r="M4" s="291"/>
       <c r="N4" s="292"/>
       <c r="O4" s="291"/>
       <c r="P4" s="292"/>
       <c r="Q4" s="291"/>
       <c r="R4" s="292"/>
-      <c r="S4" s="279" t="s">
+      <c r="S4" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="281" t="s">
+      <c r="T4" s="293" t="s">
         <v>96</v>
       </c>
-      <c r="U4" s="282"/>
-      <c r="V4" s="281" t="s">
+      <c r="U4" s="295"/>
+      <c r="V4" s="293" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="282"/>
-      <c r="X4" s="279" t="s">
+      <c r="W4" s="295"/>
+      <c r="X4" s="296" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="283" t="s">
+      <c r="Y4" s="298" t="s">
         <v>100</v>
       </c>
-      <c r="Z4" s="281" t="s">
+      <c r="Z4" s="293" t="s">
         <v>101</v>
       </c>
-      <c r="AA4" s="287"/>
-      <c r="AB4" s="282"/>
+      <c r="AA4" s="294"/>
+      <c r="AB4" s="295"/>
       <c r="AC4" s="291"/>
       <c r="AD4" s="292"/>
       <c r="AE4" s="291"/>
@@ -12672,10 +13281,10 @@
       <c r="AG4" s="291"/>
       <c r="AH4" s="292"/>
     </row>
-    <row r="5" spans="1:34" s="77" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="280"/>
+    <row r="5" spans="1:34" s="77" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="299"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="297"/>
       <c r="D5" s="76" t="s">
         <v>77</v>
       </c>
@@ -12688,8 +13297,8 @@
       <c r="G5" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
       <c r="J5" s="76" t="s">
         <v>21</v>
       </c>
@@ -12717,7 +13326,7 @@
       <c r="R5" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="S5" s="280"/>
+      <c r="S5" s="297"/>
       <c r="T5" s="76" t="s">
         <v>77</v>
       </c>
@@ -12730,8 +13339,8 @@
       <c r="W5" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="X5" s="280"/>
-      <c r="Y5" s="285"/>
+      <c r="X5" s="297"/>
+      <c r="Y5" s="299"/>
       <c r="Z5" s="76" t="s">
         <v>21</v>
       </c>
@@ -12760,7 +13369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" s="75" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78">
         <v>1</v>
       </c>
@@ -12864,11 +13473,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="75" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="289" t="s">
+    <row r="7" spans="1:34" s="75" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="282"/>
+      <c r="B7" s="295"/>
       <c r="C7" s="79">
         <f>C8+C72</f>
         <v>0</v>
@@ -12998,11 +13607,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="75" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="275" t="s">
+    <row r="8" spans="1:34" s="75" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="300" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="276"/>
+      <c r="B8" s="290"/>
       <c r="C8" s="80">
         <f>SUM(C9:C71)</f>
         <v>0</v>
@@ -13132,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>106</v>
       </c>
@@ -13172,7 +13781,7 @@
       <c r="AG9" s="82"/>
       <c r="AH9" s="82"/>
     </row>
-    <row r="10" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
         <v>108</v>
       </c>
@@ -13212,7 +13821,7 @@
       <c r="AG10" s="82"/>
       <c r="AH10" s="82"/>
     </row>
-    <row r="11" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
         <v>110</v>
       </c>
@@ -13252,7 +13861,7 @@
       <c r="AG11" s="82"/>
       <c r="AH11" s="82"/>
     </row>
-    <row r="12" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
         <v>112</v>
       </c>
@@ -13292,7 +13901,7 @@
       <c r="AG12" s="82"/>
       <c r="AH12" s="82"/>
     </row>
-    <row r="13" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
         <v>114</v>
       </c>
@@ -13332,7 +13941,7 @@
       <c r="AG13" s="82"/>
       <c r="AH13" s="82"/>
     </row>
-    <row r="14" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
         <v>116</v>
       </c>
@@ -13372,7 +13981,7 @@
       <c r="AG14" s="82"/>
       <c r="AH14" s="82"/>
     </row>
-    <row r="15" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>118</v>
       </c>
@@ -13412,7 +14021,7 @@
       <c r="AG15" s="82"/>
       <c r="AH15" s="82"/>
     </row>
-    <row r="16" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>120</v>
       </c>
@@ -13452,7 +14061,7 @@
       <c r="AG16" s="82"/>
       <c r="AH16" s="82"/>
     </row>
-    <row r="17" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>122</v>
       </c>
@@ -13492,7 +14101,7 @@
       <c r="AG17" s="82"/>
       <c r="AH17" s="82"/>
     </row>
-    <row r="18" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>124</v>
       </c>
@@ -13532,7 +14141,7 @@
       <c r="AG18" s="82"/>
       <c r="AH18" s="82"/>
     </row>
-    <row r="19" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
         <v>126</v>
       </c>
@@ -13572,7 +14181,7 @@
       <c r="AG19" s="82"/>
       <c r="AH19" s="82"/>
     </row>
-    <row r="20" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>128</v>
       </c>
@@ -13612,7 +14221,7 @@
       <c r="AG20" s="82"/>
       <c r="AH20" s="82"/>
     </row>
-    <row r="21" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>130</v>
       </c>
@@ -13652,7 +14261,7 @@
       <c r="AG21" s="82"/>
       <c r="AH21" s="82"/>
     </row>
-    <row r="22" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>132</v>
       </c>
@@ -13692,7 +14301,7 @@
       <c r="AG22" s="82"/>
       <c r="AH22" s="82"/>
     </row>
-    <row r="23" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>134</v>
       </c>
@@ -13732,7 +14341,7 @@
       <c r="AG23" s="82"/>
       <c r="AH23" s="82"/>
     </row>
-    <row r="24" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>136</v>
       </c>
@@ -13772,7 +14381,7 @@
       <c r="AG24" s="82"/>
       <c r="AH24" s="82"/>
     </row>
-    <row r="25" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>138</v>
       </c>
@@ -13812,7 +14421,7 @@
       <c r="AG25" s="82"/>
       <c r="AH25" s="82"/>
     </row>
-    <row r="26" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>140</v>
       </c>
@@ -13852,7 +14461,7 @@
       <c r="AG26" s="82"/>
       <c r="AH26" s="82"/>
     </row>
-    <row r="27" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>142</v>
       </c>
@@ -13892,7 +14501,7 @@
       <c r="AG27" s="82"/>
       <c r="AH27" s="82"/>
     </row>
-    <row r="28" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>144</v>
       </c>
@@ -13932,7 +14541,7 @@
       <c r="AG28" s="82"/>
       <c r="AH28" s="82"/>
     </row>
-    <row r="29" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>146</v>
       </c>
@@ -13972,7 +14581,7 @@
       <c r="AG29" s="82"/>
       <c r="AH29" s="82"/>
     </row>
-    <row r="30" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="84" t="s">
         <v>148</v>
       </c>
@@ -14012,7 +14621,7 @@
       <c r="AG30" s="82"/>
       <c r="AH30" s="82"/>
     </row>
-    <row r="31" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
         <v>150</v>
       </c>
@@ -14052,7 +14661,7 @@
       <c r="AG31" s="82"/>
       <c r="AH31" s="82"/>
     </row>
-    <row r="32" spans="1:35" s="85" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="84" t="s">
         <v>152</v>
       </c>
@@ -14093,7 +14702,7 @@
       <c r="AH32" s="82"/>
       <c r="AI32" s="74"/>
     </row>
-    <row r="33" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>154</v>
       </c>
@@ -14133,7 +14742,7 @@
       <c r="AG33" s="82"/>
       <c r="AH33" s="82"/>
     </row>
-    <row r="34" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>156</v>
       </c>
@@ -14173,7 +14782,7 @@
       <c r="AG34" s="82"/>
       <c r="AH34" s="82"/>
     </row>
-    <row r="35" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>158</v>
       </c>
@@ -14213,7 +14822,7 @@
       <c r="AG35" s="82"/>
       <c r="AH35" s="82"/>
     </row>
-    <row r="36" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>160</v>
       </c>
@@ -14253,7 +14862,7 @@
       <c r="AG36" s="82"/>
       <c r="AH36" s="82"/>
     </row>
-    <row r="37" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>162</v>
       </c>
@@ -14293,7 +14902,7 @@
       <c r="AG37" s="82"/>
       <c r="AH37" s="82"/>
     </row>
-    <row r="38" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
         <v>164</v>
       </c>
@@ -14333,7 +14942,7 @@
       <c r="AG38" s="82"/>
       <c r="AH38" s="82"/>
     </row>
-    <row r="39" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
         <v>166</v>
       </c>
@@ -14373,7 +14982,7 @@
       <c r="AG39" s="82"/>
       <c r="AH39" s="82"/>
     </row>
-    <row r="40" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
         <v>168</v>
       </c>
@@ -14413,7 +15022,7 @@
       <c r="AG40" s="82"/>
       <c r="AH40" s="82"/>
     </row>
-    <row r="41" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
         <v>170</v>
       </c>
@@ -14453,7 +15062,7 @@
       <c r="AG41" s="82"/>
       <c r="AH41" s="82"/>
     </row>
-    <row r="42" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
         <v>172</v>
       </c>
@@ -14493,7 +15102,7 @@
       <c r="AG42" s="82"/>
       <c r="AH42" s="82"/>
     </row>
-    <row r="43" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
         <v>174</v>
       </c>
@@ -14533,7 +15142,7 @@
       <c r="AG43" s="82"/>
       <c r="AH43" s="82"/>
     </row>
-    <row r="44" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
         <v>176</v>
       </c>
@@ -14573,7 +15182,7 @@
       <c r="AG44" s="82"/>
       <c r="AH44" s="82"/>
     </row>
-    <row r="45" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
         <v>178</v>
       </c>
@@ -14613,7 +15222,7 @@
       <c r="AG45" s="82"/>
       <c r="AH45" s="82"/>
     </row>
-    <row r="46" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
         <v>180</v>
       </c>
@@ -14653,7 +15262,7 @@
       <c r="AG46" s="82"/>
       <c r="AH46" s="82"/>
     </row>
-    <row r="47" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>182</v>
       </c>
@@ -14693,7 +15302,7 @@
       <c r="AG47" s="82"/>
       <c r="AH47" s="82"/>
     </row>
-    <row r="48" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
         <v>184</v>
       </c>
@@ -14733,7 +15342,7 @@
       <c r="AG48" s="82"/>
       <c r="AH48" s="82"/>
     </row>
-    <row r="49" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">
         <v>186</v>
       </c>
@@ -14773,7 +15382,7 @@
       <c r="AG49" s="82"/>
       <c r="AH49" s="82"/>
     </row>
-    <row r="50" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="81" t="s">
         <v>188</v>
       </c>
@@ -14813,7 +15422,7 @@
       <c r="AG50" s="82"/>
       <c r="AH50" s="82"/>
     </row>
-    <row r="51" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="81" t="s">
         <v>190</v>
       </c>
@@ -14853,7 +15462,7 @@
       <c r="AG51" s="82"/>
       <c r="AH51" s="82"/>
     </row>
-    <row r="52" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="81" t="s">
         <v>192</v>
       </c>
@@ -14893,7 +15502,7 @@
       <c r="AG52" s="82"/>
       <c r="AH52" s="82"/>
     </row>
-    <row r="53" spans="1:34" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="81" t="s">
         <v>194</v>
       </c>
@@ -14933,7 +15542,7 @@
       <c r="AG53" s="82"/>
       <c r="AH53" s="82"/>
     </row>
-    <row r="54" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81" t="s">
         <v>196</v>
       </c>
@@ -14973,7 +15582,7 @@
       <c r="AG54" s="82"/>
       <c r="AH54" s="82"/>
     </row>
-    <row r="55" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="81" t="s">
         <v>198</v>
       </c>
@@ -15013,7 +15622,7 @@
       <c r="AG55" s="82"/>
       <c r="AH55" s="82"/>
     </row>
-    <row r="56" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="81" t="s">
         <v>200</v>
       </c>
@@ -15053,7 +15662,7 @@
       <c r="AG56" s="82"/>
       <c r="AH56" s="82"/>
     </row>
-    <row r="57" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81" t="s">
         <v>202</v>
       </c>
@@ -15093,7 +15702,7 @@
       <c r="AG57" s="82"/>
       <c r="AH57" s="82"/>
     </row>
-    <row r="58" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="81" t="s">
         <v>204</v>
       </c>
@@ -15133,7 +15742,7 @@
       <c r="AG58" s="82"/>
       <c r="AH58" s="82"/>
     </row>
-    <row r="59" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="81" t="s">
         <v>206</v>
       </c>
@@ -15173,7 +15782,7 @@
       <c r="AG59" s="82"/>
       <c r="AH59" s="82"/>
     </row>
-    <row r="60" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="81" t="s">
         <v>208</v>
       </c>
@@ -15213,7 +15822,7 @@
       <c r="AG60" s="82"/>
       <c r="AH60" s="82"/>
     </row>
-    <row r="61" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="81" t="s">
         <v>210</v>
       </c>
@@ -15253,7 +15862,7 @@
       <c r="AG61" s="82"/>
       <c r="AH61" s="82"/>
     </row>
-    <row r="62" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
         <v>212</v>
       </c>
@@ -15293,7 +15902,7 @@
       <c r="AG62" s="82"/>
       <c r="AH62" s="82"/>
     </row>
-    <row r="63" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="81" t="s">
         <v>214</v>
       </c>
@@ -15333,7 +15942,7 @@
       <c r="AG63" s="82"/>
       <c r="AH63" s="82"/>
     </row>
-    <row r="64" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="81" t="s">
         <v>216</v>
       </c>
@@ -15373,7 +15982,7 @@
       <c r="AG64" s="82"/>
       <c r="AH64" s="82"/>
     </row>
-    <row r="65" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="81" t="s">
         <v>218</v>
       </c>
@@ -15413,7 +16022,7 @@
       <c r="AG65" s="82"/>
       <c r="AH65" s="82"/>
     </row>
-    <row r="66" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="81" t="s">
         <v>220</v>
       </c>
@@ -15453,7 +16062,7 @@
       <c r="AG66" s="82"/>
       <c r="AH66" s="82"/>
     </row>
-    <row r="67" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="81" t="s">
         <v>222</v>
       </c>
@@ -15493,7 +16102,7 @@
       <c r="AG67" s="82"/>
       <c r="AH67" s="82"/>
     </row>
-    <row r="68" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="87" t="s">
         <v>224</v>
       </c>
@@ -15533,7 +16142,7 @@
       <c r="AG68" s="82"/>
       <c r="AH68" s="82"/>
     </row>
-    <row r="69" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="88" t="s">
         <v>226</v>
       </c>
@@ -15573,7 +16182,7 @@
       <c r="AG69" s="82"/>
       <c r="AH69" s="82"/>
     </row>
-    <row r="70" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
         <v>228</v>
       </c>
@@ -15613,7 +16222,7 @@
       <c r="AG70" s="82"/>
       <c r="AH70" s="82"/>
     </row>
-    <row r="71" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
         <v>230</v>
       </c>
@@ -15653,11 +16262,11 @@
       <c r="AG71" s="82"/>
       <c r="AH71" s="82"/>
     </row>
-    <row r="72" spans="1:34" s="75" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="277" t="s">
+    <row r="72" spans="1:34" s="75" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="301" t="s">
         <v>232</v>
       </c>
-      <c r="B72" s="278"/>
+      <c r="B72" s="302"/>
       <c r="C72" s="91">
         <f>SUM(C73:C83)</f>
         <v>0</v>
@@ -15787,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="81" t="s">
         <v>233</v>
       </c>
@@ -15827,7 +16436,7 @@
       <c r="AG73" s="82"/>
       <c r="AH73" s="82"/>
     </row>
-    <row r="74" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="81" t="s">
         <v>235</v>
       </c>
@@ -15867,7 +16476,7 @@
       <c r="AG74" s="82"/>
       <c r="AH74" s="82"/>
     </row>
-    <row r="75" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="81" t="s">
         <v>237</v>
       </c>
@@ -15907,7 +16516,7 @@
       <c r="AG75" s="82"/>
       <c r="AH75" s="82"/>
     </row>
-    <row r="76" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="81" t="s">
         <v>239</v>
       </c>
@@ -15947,7 +16556,7 @@
       <c r="AG76" s="82"/>
       <c r="AH76" s="82"/>
     </row>
-    <row r="77" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="81" t="s">
         <v>241</v>
       </c>
@@ -15987,7 +16596,7 @@
       <c r="AG77" s="82"/>
       <c r="AH77" s="82"/>
     </row>
-    <row r="78" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="81" t="s">
         <v>243</v>
       </c>
@@ -16027,7 +16636,7 @@
       <c r="AG78" s="82"/>
       <c r="AH78" s="82"/>
     </row>
-    <row r="79" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="81" t="s">
         <v>245</v>
       </c>
@@ -16067,7 +16676,7 @@
       <c r="AG79" s="82"/>
       <c r="AH79" s="82"/>
     </row>
-    <row r="80" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="81" t="s">
         <v>247</v>
       </c>
@@ -16107,7 +16716,7 @@
       <c r="AG80" s="82"/>
       <c r="AH80" s="82"/>
     </row>
-    <row r="81" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="81" t="s">
         <v>249</v>
       </c>
@@ -16147,7 +16756,7 @@
       <c r="AG81" s="82"/>
       <c r="AH81" s="82"/>
     </row>
-    <row r="82" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="81" t="s">
         <v>251</v>
       </c>
@@ -16187,7 +16796,7 @@
       <c r="AG82" s="82"/>
       <c r="AH82" s="82"/>
     </row>
-    <row r="83" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="81" t="s">
         <v>253</v>
       </c>
@@ -16229,19 +16838,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="S4:S5"/>
@@ -16258,6 +16854,19 @@
     <mergeCell ref="AC3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:N4"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -16275,30 +16884,30 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="168" customWidth="1"/>
-    <col min="2" max="3" width="4.54296875" style="168" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" style="168" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="168" customWidth="1"/>
+    <col min="2" max="3" width="4.5703125" style="168" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="168" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="64" style="170" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.26953125" style="170" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="170" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" style="170" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="170" customWidth="1"/>
-    <col min="11" max="16384" width="14.453125" style="170"/>
+    <col min="6" max="7" width="17.28515625" style="170" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="170" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="170" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="170" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="170"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="163" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="296" t="s">
+    <row r="1" spans="1:11" s="163" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="310" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="300" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="314" t="s">
         <v>264</v>
       </c>
       <c r="F1" s="162" t="s">
@@ -16307,23 +16916,23 @@
       <c r="G1" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="295" t="s">
+      <c r="H1" s="309" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293" t="s">
+      <c r="I1" s="307"/>
+      <c r="J1" s="307" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="293" t="s">
+      <c r="K1" s="307" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="163" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="297"/>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="301"/>
+    <row r="2" spans="1:11" s="163" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="311"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="315"/>
       <c r="F2" s="161" t="s">
         <v>15</v>
       </c>
@@ -16336,10 +16945,10 @@
       <c r="I2" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-    </row>
-    <row r="3" spans="1:11" s="168" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+    </row>
+    <row r="3" spans="1:11" s="168" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="165"/>
       <c r="B3" s="165"/>
       <c r="C3" s="165"/>
@@ -16372,7 +16981,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="213">
         <v>1</v>
       </c>
@@ -16413,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="175">
         <v>2</v>
       </c>
@@ -16454,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="175">
         <v>3</v>
       </c>
@@ -16495,7 +17104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="175">
         <v>4</v>
       </c>
@@ -16536,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="175">
         <v>5</v>
       </c>
@@ -16546,8 +17155,8 @@
       <c r="C8" s="181">
         <v>305</v>
       </c>
-      <c r="D8" s="181">
-        <v>120</v>
+      <c r="D8" s="181" t="s">
+        <v>283</v>
       </c>
       <c r="E8" s="185" t="s">
         <v>266</v>
@@ -16560,24 +17169,24 @@
         <f>VLOOKUP($C8,Свод_ИВЛ!$A:$L,8,0)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="183">
+      <c r="H8" s="183" t="e">
         <f>VLOOKUP($D8,Итоги_COVID!$A:$L,3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="183">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="183" t="e">
         <f>VLOOKUP($D8,Итоги_COVID!$A:$L,5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="184">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="184" t="e">
         <f>VLOOKUP($D8,Итоги_COVID!$A:$L,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="216">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="216" t="e">
         <f t="shared" ref="K8" si="2">J8-F8-G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="175">
         <v>6</v>
       </c>
@@ -16587,8 +17196,8 @@
       <c r="C9" s="181">
         <v>306</v>
       </c>
-      <c r="D9" s="181" t="s">
-        <v>283</v>
+      <c r="D9" s="181">
+        <v>120</v>
       </c>
       <c r="E9" s="185" t="s">
         <v>267</v>
@@ -16601,24 +17210,24 @@
         <f>VLOOKUP($C9,Свод_ИВЛ!$A:$L,8,0)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="183" t="e">
+      <c r="H9" s="183">
         <f>VLOOKUP($D9,Итоги_COVID!$A:$L,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="183" t="e">
+        <v>0</v>
+      </c>
+      <c r="I9" s="183">
         <f>VLOOKUP($D9,Итоги_COVID!$A:$L,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="184" t="e">
+        <v>0</v>
+      </c>
+      <c r="J9" s="184">
         <f>VLOOKUP($D9,Итоги_COVID!$A:$L,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K9" s="216" t="e">
+        <v>0</v>
+      </c>
+      <c r="K9" s="216">
         <f t="shared" ref="K9:K12" si="3">J9-F9-G9</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="175">
         <v>7</v>
       </c>
@@ -16659,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="175">
         <v>8</v>
       </c>
@@ -16700,7 +17309,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="175">
         <v>9</v>
       </c>
@@ -16741,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="175">
         <v>10</v>
       </c>
@@ -16782,7 +17391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="175">
         <v>11</v>
       </c>
@@ -16823,7 +17432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="175">
         <v>12</v>
       </c>
@@ -16864,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="175">
         <v>13</v>
       </c>
@@ -16905,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="175">
         <v>14</v>
       </c>
@@ -16946,7 +17555,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="175">
         <v>15</v>
       </c>
@@ -16987,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="175">
         <v>16</v>
       </c>
@@ -17028,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="169" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="175">
         <v>17</v>
       </c>
@@ -17069,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="175">
         <v>18</v>
       </c>
@@ -17110,7 +17719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="171" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="171" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="174">
         <v>19</v>
       </c>
@@ -17151,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="175">
         <v>20</v>
       </c>
@@ -17192,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="175">
         <v>21</v>
       </c>
@@ -17233,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="175">
         <v>22</v>
       </c>
@@ -17274,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="174">
         <v>23</v>
       </c>
@@ -17315,7 +17924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="175">
         <v>24</v>
       </c>
@@ -17356,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="175">
         <v>25</v>
       </c>
@@ -17397,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="175">
         <v>26</v>
       </c>
@@ -17438,7 +18047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="175">
         <v>27</v>
       </c>
@@ -17479,7 +18088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="175">
         <v>28</v>
       </c>
@@ -17520,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="172" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="172" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="175">
         <v>29</v>
       </c>
@@ -17561,7 +18170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="175">
         <v>30</v>
       </c>
@@ -17602,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="176">
         <v>31</v>
       </c>
@@ -17655,12 +18264,12 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:G31">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G34">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
